--- a/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-QFD打分表.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-QFD打分表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CB49CE-3619-40BB-91B3-CBA1D1083E20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD6D28-4767-4CDC-B079-99A0F1FF6222}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="WBSData" sheetId="2" r:id="rId1"/>
     <sheet name="TempData" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9787" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9802" uniqueCount="457">
   <si>
     <t>Work-</t>
   </si>
@@ -1362,6 +1362,328 @@
   </si>
   <si>
     <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：优先级在0.75以上（含0.75）为高优先级，在0.2-0.75（含0.2）为中优先级，在0.2以下的为低优先级</t>
+  </si>
+  <si>
+    <t>表中数据统一采用1-9的数字进行填写:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优先级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     :  = （价值%）/（（成本%*成本价值）+（风险%*风险价值））</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">风险% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      : =用例相对风险   /  所有用例的风险之和  * 100%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  : 1代表风险最小，9代表风险最大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">成本% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      : =用例相对成本   /   所有用例成本之和   *   100%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对成本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1代表省时省力，9代表费时费力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技术难度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1代表技术难度最低，9代表技术难度最高</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对收益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1代表收益最小，9代表收益最大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1代表损失最小，9代表损失最大</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总价值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ：为相对收益*相对权值+相对损失*相对权值的和    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>价值%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       : =用例总价值  /  所有用例的总价值之和 * 100%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对 费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1代表费用低廉,  9代表费用高昂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>费用%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       : =用例相对费用   /  所有用例的费用之和  * 100%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,6 +1716,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1409,7 +1748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1433,7 +1772,150 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1445,17 +1927,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1467,13 +1951,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,9 +2039,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1513,9 +2054,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
@@ -1525,16 +2063,94 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,10 +2436,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -1831,394 +2447,242 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="12.21875" style="4" customWidth="1"/>
+    <col min="5" max="10" width="12.21875" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D18" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E18" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F18" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G18" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H18" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I18" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J18" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K18" s="32" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="34"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="20" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="34"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="21" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="34"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="22" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="34"/>
     </row>
-    <row r="7" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="23" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2228,14 +2692,14 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>299</v>
+    <row r="24" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2245,48 +2709,48 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>302</v>
+    <row r="25" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>270</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+        <v>269</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>304</v>
+    <row r="26" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>272</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>305</v>
+      <c r="A27" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2296,14 +2760,14 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>307</v>
+      <c r="A28" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2313,14 +2777,14 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="36"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>309</v>
+    <row r="29" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2330,82 +2794,82 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="36"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+    <row r="30" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+    <row r="31" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+    <row r="32" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>317</v>
+    <row r="33" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+        <v>285</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>318</v>
+      <c r="A34" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2415,14 +2879,14 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>320</v>
+      <c r="A35" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2432,31 +2896,31 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+    <row r="36" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>324</v>
+      <c r="A37" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2466,14 +2930,14 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="K37" s="36"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>326</v>
+    <row r="38" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2483,31 +2947,31 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="K38" s="36"/>
     </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+    <row r="39" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="36"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>330</v>
+    <row r="40" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2517,48 +2981,48 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="36"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+    <row r="41" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>336</v>
+      <c r="A43" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2568,14 +3032,14 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>338</v>
+      <c r="A44" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2585,14 +3049,14 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>340</v>
+      <c r="A45" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2602,14 +3066,14 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="K45" s="36"/>
     </row>
-    <row r="46" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>342</v>
+    <row r="46" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2619,99 +3083,99 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="K46" s="36"/>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+    <row r="47" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+    <row r="48" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="34"/>
     </row>
-    <row r="49" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+    <row r="49" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="34"/>
     </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+    <row r="50" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="36"/>
     </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>351</v>
+    <row r="51" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>352</v>
+      <c r="A52" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2721,14 +3185,14 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>354</v>
+      <c r="A53" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2738,14 +3202,14 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="K53" s="36"/>
     </row>
-    <row r="54" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>356</v>
+    <row r="54" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2755,48 +3219,48 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="K54" s="36"/>
     </row>
-    <row r="55" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+    <row r="55" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="34"/>
     </row>
-    <row r="56" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>361</v>
+    <row r="56" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+        <v>330</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>336</v>
+      <c r="A57" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2806,31 +3270,31 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="K57" s="36"/>
     </row>
-    <row r="58" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+    <row r="58" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="34"/>
     </row>
     <row r="59" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>342</v>
+      <c r="A59" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2840,31 +3304,31 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="K59" s="36"/>
     </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>367</v>
+    <row r="60" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>339</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+        <v>338</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>368</v>
+      <c r="A61" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2874,14 +3338,14 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>370</v>
+      <c r="A62" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2891,48 +3355,48 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="K62" s="36"/>
     </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>373</v>
+    <row r="63" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>344</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+        <v>295</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="34"/>
     </row>
-    <row r="64" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>375</v>
+    <row r="64" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>346</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+        <v>345</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>376</v>
+      <c r="A65" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2942,48 +3406,48 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="K65" s="36"/>
     </row>
-    <row r="66" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+    <row r="66" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="A67" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>382</v>
+      <c r="A68" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2993,14 +3457,14 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>384</v>
+      <c r="A69" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3010,31 +3474,31 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="K69" s="36"/>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>387</v>
+    <row r="70" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+        <v>356</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>388</v>
+      <c r="A71" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3044,48 +3508,48 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="K71" s="36"/>
     </row>
-    <row r="72" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+    <row r="72" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="34"/>
     </row>
-    <row r="73" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>392</v>
+    <row r="73" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>362</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+        <v>336</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>393</v>
+      <c r="A74" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3095,14 +3559,14 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="K74" s="36"/>
     </row>
     <row r="75" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>395</v>
+      <c r="A75" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3112,48 +3576,48 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="K75" s="36"/>
     </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+    <row r="76" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="34"/>
     </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+    <row r="77" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="36"/>
     </row>
-    <row r="78" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>401</v>
+    <row r="78" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3163,48 +3627,48 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="K78" s="36"/>
     </row>
-    <row r="79" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+    <row r="79" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="34"/>
     </row>
-    <row r="80" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>406</v>
+    <row r="80" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>375</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+        <v>374</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="34"/>
     </row>
-    <row r="81" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>407</v>
+    <row r="81" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3214,14 +3678,14 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="K81" s="36"/>
     </row>
-    <row r="82" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>409</v>
+    <row r="82" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3231,31 +3695,31 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="K82" s="36"/>
     </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>412</v>
+    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>381</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+        <v>380</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="34"/>
     </row>
-    <row r="84" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>413</v>
+    <row r="84" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3265,14 +3729,14 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="K84" s="36"/>
     </row>
-    <row r="85" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>415</v>
+    <row r="85" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3282,31 +3746,31 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="K85" s="36"/>
     </row>
-    <row r="86" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>418</v>
+    <row r="86" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
+        <v>387</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+        <v>386</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="34"/>
     </row>
-    <row r="87" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>419</v>
+    <row r="87" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3316,48 +3780,48 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="K87" s="36"/>
     </row>
-    <row r="88" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+    <row r="88" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A88" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="36"/>
     </row>
-    <row r="89" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+    <row r="89" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>425</v>
+    <row r="90" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3367,14 +3831,14 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="K90" s="36"/>
     </row>
-    <row r="91" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>427</v>
+    <row r="91" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3384,29 +3848,301 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="K91" s="36"/>
     </row>
-    <row r="92" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="34"/>
+    </row>
+    <row r="93" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="34"/>
+    </row>
+    <row r="94" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="34"/>
+    </row>
+    <row r="100" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A100" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="36"/>
+    </row>
+    <row r="101" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A101" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A103" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="34"/>
+    </row>
+    <row r="105" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B108" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-QFD打分表.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-QFD打分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD6D28-4767-4CDC-B079-99A0F1FF6222}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190CFFF1-A0E4-4F14-8697-035030CDA55A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9802" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9833" uniqueCount="485">
   <si>
     <t>Work-</t>
   </si>
@@ -1511,32 +1511,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>技术难度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：1代表技术难度最低，9代表技术难度最高</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>相对收益</t>
     </r>
     <r>
@@ -1631,60 +1605,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>相对 费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：1代表费用低廉,  9代表费用高昂</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>费用%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       : =用例相对费用   /  所有用例的费用之和  * 100%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排序规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议点击左上角的数字 按层次打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已将不需要客户填写的属性隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.6.1.3</t>
+  </si>
+  <si>
+    <t>1.1.2.1.5</t>
+  </si>
+  <si>
+    <t>1.1.3.1.4</t>
+  </si>
+  <si>
+    <t>投诉功能</t>
+  </si>
+  <si>
+    <t>仅资深用户可以投诉</t>
+  </si>
+  <si>
+    <t>当主界面地图以卫星图方式显示时，图标颜色需要改变（否则看不清楚）</t>
+  </si>
+  <si>
+    <t>1.1.1.1.4</t>
+  </si>
+  <si>
+    <t>主界面地图显示需要筛选条件，全部钓点or查看好友的钓点or我建立的钓点</t>
+  </si>
+  <si>
+    <t>1.1.2.1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.2.3.1</t>
+  </si>
+  <si>
+    <t>新建钓点的用户自动成为该钓点的管理员</t>
+  </si>
+  <si>
+    <t>1.1.2.3.2</t>
+  </si>
+  <si>
+    <t>新增操作提交的信息允许提交人修改</t>
+  </si>
+  <si>
+    <t>1.1.3.1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.3.2.1</t>
+  </si>
+  <si>
+    <t>新建渔具店的用户自动成为该渔具店的管理员</t>
+  </si>
+  <si>
+    <t>1.1.3.2.2</t>
+  </si>
+  <si>
+    <t>约钓需要五个状态</t>
+  </si>
+  <si>
+    <t>1.1.4.1.5</t>
+  </si>
+  <si>
+    <t>1.1.4.1.6</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主增删人</t>
+  </si>
+  <si>
+    <t>1.1.4.1.7</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主手动提前结束、提前开始、取消活动</t>
+  </si>
+  <si>
+    <t>1.1.4.1.8</t>
+  </si>
+  <si>
+    <t>在发起约钓时，需要发起人选择参与人范围、分享可见的范围</t>
+  </si>
+  <si>
+    <t>约钓推荐改为系统推荐</t>
+  </si>
+  <si>
+    <t>1.1.6.5</t>
+  </si>
+  <si>
+    <t>查看到各个渔友的注册时间</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1889,30 +1906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2011,13 +2004,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,32 +2196,32 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2141,17 +2229,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2436,36 +2551,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="12.21875" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>443</v>
       </c>
@@ -2474,147 +2595,183 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
+      <c r="G7" s="38" t="s">
+        <v>454</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
+      <c r="G8" s="4" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+    <row r="17" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>441</v>
-      </c>
+    <row r="18" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>241</v>
+    <row r="19" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2622,84 +2779,84 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="34"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+        <v>456</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>263</v>
+    <row r="23" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>463</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="36"/>
+        <v>464</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>267</v>
+      <c r="A24" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2707,33 +2864,33 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="36"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="34"/>
     </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>272</v>
+      <c r="A26" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2741,16 +2898,16 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>274</v>
+    <row r="27" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2758,84 +2915,84 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="36"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="34"/>
     </row>
-    <row r="28" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="36"/>
+    <row r="28" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="36"/>
+    <row r="29" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+    <row r="30" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+        <v>284</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>284</v>
+      <c r="A32" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2843,16 +3000,16 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="36"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>285</v>
+      <c r="A33" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>460</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2860,16 +3017,16 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="36"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>287</v>
+      <c r="A34" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>461</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2877,16 +3034,16 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="36"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>290</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2894,50 +3051,50 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="36"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="34"/>
     </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+        <v>458</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="34"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="36"/>
+    <row r="37" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>296</v>
+      <c r="A38" s="33" t="s">
+        <v>294</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2945,16 +3102,16 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="36"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="34"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>297</v>
+    <row r="39" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2962,16 +3119,16 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="36"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>299</v>
+      <c r="A40" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2979,33 +3136,33 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="36"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="34"/>
     </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+        <v>466</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="34"/>
     </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>303</v>
+        <v>468</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3013,33 +3170,33 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="34"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="32"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="36"/>
+    <row r="43" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>307</v>
+      <c r="A44" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3047,16 +3204,16 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="36"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>309</v>
+      <c r="A45" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3064,16 +3221,16 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="36"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>311</v>
+    <row r="46" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3081,16 +3238,16 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="36"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="34"/>
     </row>
-    <row r="47" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>313</v>
+    <row r="47" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3098,50 +3255,50 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="36"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="34"/>
     </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+    <row r="48" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="34"/>
     </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+        <v>470</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="34"/>
     </row>
-    <row r="50" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>319</v>
+    <row r="50" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>459</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -3149,16 +3306,16 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="36"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="34"/>
     </row>
-    <row r="51" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>320</v>
+    <row r="51" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3166,50 +3323,50 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="36"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="34"/>
     </row>
-    <row r="52" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>323</v>
+    <row r="52" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="36"/>
+        <v>472</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="32"/>
     </row>
-    <row r="53" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
-        <v>325</v>
+    <row r="53" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>473</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="36"/>
+        <v>469</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="32"/>
     </row>
-    <row r="54" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>327</v>
+    <row r="54" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>314</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3217,33 +3374,33 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="36"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="34"/>
     </row>
-    <row r="55" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+    <row r="55" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="34"/>
     </row>
     <row r="56" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>330</v>
+      <c r="A56" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3251,16 +3408,16 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="36"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="34"/>
     </row>
     <row r="57" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>333</v>
+      <c r="A57" s="33" t="s">
+        <v>319</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3268,50 +3425,50 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="36"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="34"/>
     </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="34"/>
     </row>
-    <row r="59" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
-        <v>337</v>
+    <row r="59" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>323</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="36"/>
+        <v>320</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="32"/>
     </row>
     <row r="60" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
-        <v>339</v>
+      <c r="A60" s="33" t="s">
+        <v>325</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3319,16 +3476,16 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="36"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="34"/>
     </row>
     <row r="61" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>341</v>
+      <c r="A61" s="33" t="s">
+        <v>475</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3336,50 +3493,50 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="36"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="34"/>
     </row>
-    <row r="62" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>343</v>
+    <row r="62" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="36"/>
+        <v>477</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="32"/>
     </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+        <v>478</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="34"/>
     </row>
     <row r="64" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
-        <v>346</v>
+      <c r="A64" s="33" t="s">
+        <v>480</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>345</v>
+        <v>481</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -3387,16 +3544,16 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="36"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="34"/>
     </row>
     <row r="65" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>347</v>
+      <c r="A65" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3404,33 +3561,33 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="36"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="34"/>
     </row>
-    <row r="66" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+    <row r="66" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>349</v>
+        <v>331</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3438,16 +3595,16 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="34"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>353</v>
+      <c r="A68" s="33" t="s">
+        <v>333</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -3455,16 +3612,16 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="36"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="34"/>
     </row>
     <row r="69" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>354</v>
+      <c r="A69" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3472,67 +3629,67 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="36"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="34"/>
     </row>
-    <row r="70" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>357</v>
+    <row r="70" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>337</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="36"/>
+        <v>336</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="32"/>
     </row>
-    <row r="71" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>359</v>
+    <row r="71" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>339</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="36"/>
+        <v>338</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="32"/>
     </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="34"/>
     </row>
     <row r="73" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>362</v>
+      <c r="A73" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3540,16 +3697,16 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="36"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="34"/>
     </row>
     <row r="74" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>363</v>
+      <c r="A74" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3557,16 +3714,16 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="36"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="34"/>
     </row>
     <row r="75" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>365</v>
+      <c r="A75" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3574,16 +3731,16 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="36"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="34"/>
     </row>
     <row r="76" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>366</v>
+        <v>348</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3591,16 +3748,16 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="34"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>368</v>
+      <c r="A77" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3608,16 +3765,16 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="36"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="34"/>
     </row>
     <row r="78" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>370</v>
+      <c r="A78" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3625,33 +3782,33 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="36"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="34"/>
     </row>
-    <row r="79" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+        <v>353</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="34"/>
     </row>
     <row r="80" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>374</v>
+        <v>355</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3659,16 +3816,16 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="34"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>377</v>
+      <c r="A81" s="33" t="s">
+        <v>357</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3676,16 +3833,16 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="36"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="34"/>
     </row>
     <row r="82" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
-        <v>379</v>
+      <c r="A82" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3693,16 +3850,16 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="36"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="34"/>
     </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>381</v>
+    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3710,33 +3867,33 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="34"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="32"/>
     </row>
-    <row r="84" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
-        <v>383</v>
+    <row r="84" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="36"/>
+        <v>336</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
-        <v>385</v>
+      <c r="A85" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3744,33 +3901,33 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="36"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="34"/>
     </row>
-    <row r="86" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="34"/>
     </row>
     <row r="87" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>388</v>
+      <c r="A87" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3778,50 +3935,50 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="36"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="34"/>
     </row>
-    <row r="88" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
-        <v>390</v>
+    <row r="88" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="36"/>
+        <v>368</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="32"/>
     </row>
-    <row r="89" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+        <v>371</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="34"/>
     </row>
     <row r="90" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>393</v>
+      <c r="A90" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3829,84 +3986,84 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="36"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="34"/>
     </row>
-    <row r="91" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="36"/>
+    <row r="91" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="32"/>
     </row>
-    <row r="92" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+        <v>377</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="34"/>
     </row>
-    <row r="93" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+        <v>379</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="34"/>
     </row>
-    <row r="94" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="36"/>
+    <row r="94" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="32"/>
     </row>
-    <row r="95" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>403</v>
+    <row r="95" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3914,84 +4071,84 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="36"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="34"/>
     </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+        <v>383</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="34"/>
     </row>
-    <row r="97" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="36"/>
+    <row r="97" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="32"/>
     </row>
-    <row r="98" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="36"/>
+    <row r="98" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="32"/>
     </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="34"/>
     </row>
     <row r="100" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A100" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>413</v>
+      <c r="A100" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3999,50 +4156,50 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="36"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="34"/>
     </row>
-    <row r="101" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A101" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="36"/>
+    <row r="101" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="32"/>
     </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+        <v>394</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="34"/>
     </row>
     <row r="103" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A103" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>419</v>
+      <c r="A103" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -4050,16 +4207,16 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="36"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="34"/>
     </row>
     <row r="104" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>421</v>
+        <v>483</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>484</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -4067,16 +4224,16 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="34"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="32"/>
     </row>
     <row r="105" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>423</v>
+      <c r="A105" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -4084,16 +4241,16 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="36"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="34"/>
     </row>
-    <row r="106" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A106" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>425</v>
+    <row r="106" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -4101,48 +4258,253 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="36"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="34"/>
     </row>
-    <row r="107" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
+    <row r="107" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="32"/>
+    </row>
+    <row r="108" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A108" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="34"/>
+    </row>
+    <row r="109" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="32"/>
+    </row>
+    <row r="110" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A110" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="34"/>
+    </row>
+    <row r="111" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="34"/>
+    </row>
+    <row r="112" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11" ht="14.4" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="37"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="32"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="34"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="32"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="34"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="34"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B120" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="36"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="34"/>
     </row>
-    <row r="108" spans="1:11" ht="14.4" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+    <row r="121" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B121" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="40"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
